--- a/data/trans_orig/P14B35-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P14B35-Clase-trans_orig.xlsx
@@ -1269,19 +1269,19 @@
         <v>3580</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10707</v>
+        <v>10677</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01142032693852998</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003084405391284971</v>
+        <v>0.003088257991214811</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03415829204897341</v>
+        <v>0.03406293402540801</v>
       </c>
     </row>
     <row r="5">
@@ -1298,19 +1298,19 @@
         <v>309877</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>302750</v>
+        <v>302780</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>312490</v>
+        <v>312489</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.98857967306147</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9658417079510268</v>
+        <v>0.9659370659745955</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.996915594608715</v>
+        <v>0.9969117420087852</v>
       </c>
     </row>
     <row r="6">
@@ -1360,19 +1360,19 @@
         <v>6033</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2020</v>
+        <v>2038</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11176</v>
+        <v>11908</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01784792806295036</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005976105166876977</v>
+        <v>0.006029932291230036</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03306332272625032</v>
+        <v>0.03523068025998792</v>
       </c>
     </row>
     <row r="8">
@@ -1389,19 +1389,19 @@
         <v>331978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>326835</v>
+        <v>326103</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>335991</v>
+        <v>335973</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9821520719370497</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9669366772737497</v>
+        <v>0.9647693197400119</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.994023894833123</v>
+        <v>0.9939700677087699</v>
       </c>
     </row>
     <row r="9">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5826</v>
+        <v>4965</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003835102746714257</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02239607711048421</v>
+        <v>0.01908627673009429</v>
       </c>
     </row>
     <row r="11">
@@ -1480,7 +1480,7 @@
         <v>259131</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>254303</v>
+        <v>255164</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>260129</v>
@@ -1489,7 +1489,7 @@
         <v>0.9961648972532857</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9776039228895156</v>
+        <v>0.9809137232699057</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1542,19 +1542,19 @@
         <v>15033</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8715</v>
+        <v>8283</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24555</v>
+        <v>24193</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0196581584375891</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01139630757848824</v>
+        <v>0.01083077946667222</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.032109471490631</v>
+        <v>0.03163592112150176</v>
       </c>
     </row>
     <row r="14">
@@ -1571,19 +1571,19 @@
         <v>749689</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>740167</v>
+        <v>740529</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>756007</v>
+        <v>756439</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9803418415624109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9678905285093691</v>
+        <v>0.9683640788784978</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9886036924215121</v>
+        <v>0.9891692205333277</v>
       </c>
     </row>
     <row r="15">
@@ -1633,19 +1633,19 @@
         <v>7911</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3122</v>
+        <v>3135</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15968</v>
+        <v>15739</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01040630212730208</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004106347453791848</v>
+        <v>0.004123406182555736</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02100381976625293</v>
+        <v>0.02070263319024465</v>
       </c>
     </row>
     <row r="17">
@@ -1662,19 +1662,19 @@
         <v>752335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>744278</v>
+        <v>744507</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>757124</v>
+        <v>757111</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9895936978726979</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.978996180233747</v>
+        <v>0.9792973668097553</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9958936525462081</v>
+        <v>0.9958765938174443</v>
       </c>
     </row>
     <row r="18">
@@ -1724,19 +1724,19 @@
         <v>10152</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5065</v>
+        <v>5033</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17799</v>
+        <v>17643</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009150887664740917</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004565361109221727</v>
+        <v>0.004536977601248857</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01604451847252999</v>
+        <v>0.01590364529854101</v>
       </c>
     </row>
     <row r="20">
@@ -1753,19 +1753,19 @@
         <v>1099199</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1091552</v>
+        <v>1091708</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1104286</v>
+        <v>1104318</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9908491123352591</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9839554815274695</v>
+        <v>0.9840963547014587</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9954346388907782</v>
+        <v>0.9954630223987511</v>
       </c>
     </row>
     <row r="21">
@@ -1815,19 +1815,19 @@
         <v>43706</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31658</v>
+        <v>30994</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57769</v>
+        <v>57996</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01232576230146635</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008927879367586673</v>
+        <v>0.008740776153121962</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01629165682126751</v>
+        <v>0.01635560467879148</v>
       </c>
     </row>
     <row r="23">
@@ -1844,19 +1844,19 @@
         <v>3502211</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3488148</v>
+        <v>3487921</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3514259</v>
+        <v>3514923</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9876742376985337</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9837083431787325</v>
+        <v>0.9836443953212085</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9910721206324133</v>
+        <v>0.991259223846878</v>
       </c>
     </row>
     <row r="24">
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5630</v>
+        <v>6839</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005306881897283021</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01622137158458819</v>
+        <v>0.01970541765230858</v>
       </c>
     </row>
     <row r="5">
@@ -2055,7 +2055,7 @@
         <v>345213</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>341425</v>
+        <v>340216</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>347055</v>
@@ -2064,7 +2064,7 @@
         <v>0.994693118102717</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9837786284154119</v>
+        <v>0.9802945823476894</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2117,19 +2117,19 @@
         <v>3123</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9377</v>
+        <v>9397</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008390276325472601</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002667577117693996</v>
+        <v>0.002649668942277245</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02518833560196061</v>
+        <v>0.02524121815150703</v>
       </c>
     </row>
     <row r="8">
@@ -2146,19 +2146,19 @@
         <v>369150</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>362896</v>
+        <v>362876</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>371280</v>
+        <v>371287</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9916097236745274</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9748116643980393</v>
+        <v>0.9747587818484935</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9973324228823059</v>
+        <v>0.9973503310577227</v>
       </c>
     </row>
     <row r="9">
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6176</v>
+        <v>6020</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006658276441805239</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03717545012891576</v>
+        <v>0.03623533441084149</v>
       </c>
     </row>
     <row r="11">
@@ -2237,7 +2237,7 @@
         <v>165017</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>159947</v>
+        <v>160103</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>166123</v>
@@ -2246,7 +2246,7 @@
         <v>0.9933417235581947</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9628245498710846</v>
+        <v>0.963764665589158</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2299,19 +2299,19 @@
         <v>4697</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10374</v>
+        <v>10336</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005687069478033848</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002253319160951789</v>
+        <v>0.002249707544578951</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01256114104514788</v>
+        <v>0.01251546589559127</v>
       </c>
     </row>
     <row r="14">
@@ -2328,19 +2328,19 @@
         <v>821179</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>815502</v>
+        <v>815540</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>824015</v>
+        <v>824018</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9943129305219661</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9874388589548521</v>
+        <v>0.9874845341044087</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9977466808390483</v>
+        <v>0.9977502924554211</v>
       </c>
     </row>
     <row r="15">
@@ -2390,19 +2390,19 @@
         <v>2715</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7419</v>
+        <v>7414</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0036781271151581</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001106616327873519</v>
+        <v>0.001104597414321427</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01004887152339688</v>
+        <v>0.01004281359975949</v>
       </c>
     </row>
     <row r="17">
@@ -2419,19 +2419,19 @@
         <v>735529</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>730825</v>
+        <v>730830</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>737427</v>
+        <v>737429</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9963218728848419</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9899511284766032</v>
+        <v>0.9899571864002408</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9988933836721264</v>
+        <v>0.9988954025856785</v>
       </c>
     </row>
     <row r="18">
@@ -2481,19 +2481,19 @@
         <v>3913</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>947</v>
+        <v>995</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9786</v>
+        <v>9905</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003616320691218507</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0008753486355432698</v>
+        <v>0.0009192812257217673</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.009043916746652357</v>
+        <v>0.009153722097598221</v>
       </c>
     </row>
     <row r="20">
@@ -2510,19 +2510,19 @@
         <v>1078112</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1072239</v>
+        <v>1072120</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1081078</v>
+        <v>1081030</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9963836793087815</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9909560832533476</v>
+        <v>0.9908462779024017</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9991246513644567</v>
+        <v>0.9990807187742782</v>
       </c>
     </row>
     <row r="21">
@@ -2572,19 +2572,19 @@
         <v>17396</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10513</v>
+        <v>10636</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26348</v>
+        <v>26535</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004925950085774419</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002976708267206482</v>
+        <v>0.003011643085432275</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007460750039889947</v>
+        <v>0.007513726234412294</v>
       </c>
     </row>
     <row r="23">
@@ -2601,19 +2601,19 @@
         <v>3514200</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3505248</v>
+        <v>3505061</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3521083</v>
+        <v>3520960</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9950740499142255</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9925392499601102</v>
+        <v>0.9924862737655877</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9970232917327936</v>
+        <v>0.9969883569145678</v>
       </c>
     </row>
     <row r="24">
@@ -2783,19 +2783,19 @@
         <v>20225</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13127</v>
+        <v>12418</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30951</v>
+        <v>29966</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04161936275489329</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02701382263065568</v>
+        <v>0.02555343318302336</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06369277710938837</v>
+        <v>0.06166463948261931</v>
       </c>
     </row>
     <row r="5">
@@ -2812,19 +2812,19 @@
         <v>465721</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>454995</v>
+        <v>455980</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>472819</v>
+        <v>473528</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9583806372451068</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9363072228906114</v>
+        <v>0.9383353605173804</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9729861773693443</v>
+        <v>0.9744465668169763</v>
       </c>
     </row>
     <row r="6">
@@ -2874,19 +2874,19 @@
         <v>19882</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13138</v>
+        <v>11848</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29625</v>
+        <v>29297</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04721533919032828</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03120022228178075</v>
+        <v>0.02813535539007779</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07035329503705703</v>
+        <v>0.06957410869005642</v>
       </c>
     </row>
     <row r="8">
@@ -2903,19 +2903,19 @@
         <v>401212</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>391469</v>
+        <v>391797</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>407956</v>
+        <v>409246</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9527846608096716</v>
+        <v>0.9527846608096717</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9296467049629431</v>
+        <v>0.9304258913099434</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9687997777182196</v>
+        <v>0.9718646446099221</v>
       </c>
     </row>
     <row r="9">
@@ -2965,19 +2965,19 @@
         <v>3943</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1403</v>
+        <v>859</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10113</v>
+        <v>10437</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02103077751200843</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007484949101920941</v>
+        <v>0.004582366249258104</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05393913320563502</v>
+        <v>0.05566712615770237</v>
       </c>
     </row>
     <row r="11">
@@ -2994,19 +2994,19 @@
         <v>183554</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>177384</v>
+        <v>177060</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>186094</v>
+        <v>186638</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9789692224879916</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9460608667943652</v>
+        <v>0.9443328738422971</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9925150508980791</v>
+        <v>0.9954176337507419</v>
       </c>
     </row>
     <row r="12">
@@ -3056,19 +3056,19 @@
         <v>34225</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23817</v>
+        <v>24295</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47533</v>
+        <v>46120</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03992575625368255</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02778428514763143</v>
+        <v>0.0283425272164459</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05545097866426361</v>
+        <v>0.05380310327449993</v>
       </c>
     </row>
     <row r="14">
@@ -3085,19 +3085,19 @@
         <v>822980</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>809672</v>
+        <v>811085</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>833388</v>
+        <v>832910</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9600742437463173</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9445490213357365</v>
+        <v>0.9461968967255009</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9722157148523689</v>
+        <v>0.9716574727835545</v>
       </c>
     </row>
     <row r="15">
@@ -3147,19 +3147,19 @@
         <v>16688</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10765</v>
+        <v>10358</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25377</v>
+        <v>24579</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02014012098232954</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0129921816634221</v>
+        <v>0.01250058656283636</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03062531243363449</v>
+        <v>0.02966278494234576</v>
       </c>
     </row>
     <row r="17">
@@ -3176,19 +3176,19 @@
         <v>811925</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>803236</v>
+        <v>804034</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>817848</v>
+        <v>818255</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9798598790176704</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9693746875663658</v>
+        <v>0.9703372150576542</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.987007818336578</v>
+        <v>0.9874994134371637</v>
       </c>
     </row>
     <row r="18">
@@ -3238,19 +3238,19 @@
         <v>22108</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11806</v>
+        <v>12193</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39820</v>
+        <v>40651</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02620676864662589</v>
+        <v>0.0262067686466259</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01399533297167974</v>
+        <v>0.01445321112038476</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04720228385274703</v>
+        <v>0.04818747902260028</v>
       </c>
     </row>
     <row r="20">
@@ -3267,19 +3267,19 @@
         <v>821488</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>803776</v>
+        <v>802945</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>831790</v>
+        <v>831403</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9737932313533741</v>
+        <v>0.9737932313533743</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9527977161472528</v>
+        <v>0.9518125209773997</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9860046670283202</v>
+        <v>0.9855467888796153</v>
       </c>
     </row>
     <row r="21">
@@ -3329,19 +3329,19 @@
         <v>117071</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>96334</v>
+        <v>96538</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>141516</v>
+        <v>140252</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03230477129125997</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02658250263664584</v>
+        <v>0.02663895076368162</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03905026056219333</v>
+        <v>0.03870131828852998</v>
       </c>
     </row>
     <row r="23">
@@ -3358,19 +3358,19 @@
         <v>3506880</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3482435</v>
+        <v>3483699</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3527617</v>
+        <v>3527413</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9676952287087401</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9609497394378067</v>
+        <v>0.9612986817114701</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9734174973633541</v>
+        <v>0.9733610492363184</v>
       </c>
     </row>
     <row r="24">
